--- a/data/hotels_by_city/Dallas/Dallas_shard_9.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_9.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="226">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Kasey L</t>
+  </si>
+  <si>
     <t>05/25/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>We stayed here two nights.  The first night it smelled okay.  We left the next morning and was gone all day.  We came back around 8:00 pm and opened the door and it smelled like a skunk had sprayed the room.  It was horrible!  We went to the front desk.  He smelled the room and said "It didn't smell to him".  The room next to us did not smell and we had two other guests smell the room.  We then got the manager who said it was "against policy to change rooms after staying one night".  He also told us "it might be your clothes or something you've done".  I was irate and insisted.  He refused and brought in a can of air freshener for us to spray in the room and gave us a bag of nasty chips "for our troubles"!  It was the worst experience.  This was terrible customer service and I will never stay at an America's Best Value Inn again!More</t>
   </si>
   <si>
+    <t>crabtreed1234</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r470147836-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>shigh2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r468946376-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -255,6 +264,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Ggayle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r330515984-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Jamie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r292986784-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -291,6 +306,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>gu n</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r287565010-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -306,6 +324,9 @@
     <t>One of the best we've ever stayed at. The staff is always very helpful and the facilities are excellent. I would recommend this hotel with the highest rating. It is well located, I am glade to chose this property after viewing others review. leas expensive and nicer room</t>
   </si>
   <si>
+    <t>Pamela C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r274646713-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -324,6 +345,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Chuck  G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r269770040-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -342,6 +366,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>wildcat817</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r266664179-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -360,6 +387,9 @@
     <t>I was staying at the hotel for 3 months at first i was saying nice place quiet like the place but the longer i stayed the worst they got the manager wife is the worst of all only give tissue every other day really....claim we stolen towels fron them so thry only gave one towel what a joke then talk bout it took a hour to clean the room then i realize they charge different prices 50 one day 60 the next charge 1 dollar for a can soda then a course the phone calls checkout at 11 why you calling at 9 to see if im leaving telling me to get my stuff out the room to clean and yesterday when i had my stuff outside and trying to check back in theu say soldout dont have any room left....whatever just didnt want my business anymore the problem is the wife she runs everything charge too much won't give me any receipt when i ask they cheap dont have trash bags hire some damn people to clean for you the guy is ok its the wife she is rude as hell dont know how to talk to people i wont go back there again rude shes rude not a place to be no pool no laundry room to wash clothes shes so damn room they get whats comingMore</t>
   </si>
   <si>
+    <t>Castle C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r254162112-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -378,6 +408,9 @@
     <t>These people bare unbelievable. Walked in about 8pm...NO one was there waiting (smelled horrible) and finally the managers (her husband) little puppet walked up to the front to assist me while getting food out of his teeth! (GROSS)! So I get my room that I booked on Expedia. The room was ok, everything looked ok but it smelled nasty! I literally went there to get some piece and quite and only used the bed to sleep in. I get a call from the front desk the next day BEFORE CHECK OUT! And it was the manager (the wife) asking me if I was staying another night, I said no! Then she tells me I need to leave now, I explained to her it was not even check out andoesn't I was getting ready she told me she didn't care she needed her room if I wasn't staying!  (REALLY) so then I was told I'd have to pay $10 if I need to stay later...LOL I DON'T THING SO! I hung up the phone and continued to get ready...literally 5 minutes later someone opens the door with a key OMG REALLY GUESS WHO!? (THE GRANDMA, THE MANAGERS MOTHER) I had the lock on do she didn't make it in....I told her if they didn't stop harassing me I would call the police and shut the door. So on my way out I get another phone call (manager) saying that I she...These people bare unbelievable. Walked in about 8pm...NO one was there waiting (smelled horrible) and finally the managers (her husband) little puppet walked up to the front to assist me while getting food out of his teeth! (GROSS)! So I get my room that I booked on Expedia. The room was ok, everything looked ok but it smelled nasty! I literally went there to get some piece and quite and only used the bed to sleep in. I get a call from the front desk the next day BEFORE CHECK OUT! And it was the manager (the wife) asking me if I was staying another night, I said no! Then she tells me I need to leave now, I explained to her it was not even check out andoesn't I was getting ready she told me she didn't care she needed her room if I wasn't staying!  (REALLY) so then I was told I'd have to pay $10 if I need to stay later...LOL I DON'T THING SO! I hung up the phone and continued to get ready...literally 5 minutes later someone opens the door with a key OMG REALLY GUESS WHO!? (THE GRANDMA, THE MANAGERS MOTHER) I had the lock on do she didn't make it in....I told her if they didn't stop harassing me I would call the police and shut the door. So on my way out I get another phone call (manager) saying that I she was going to co.e collect her $10 I told her I was on my way to check out and hung up. On my way down I pass her walking to my room I just left lol. I got down there to check out and made her husband give me a receipt showing I owed nothing, because I do not trust these people and then asked him if that was his wife that is demanding for $10 he said yes! So I told him on my way out I felt sorry for him, and that she is robbing people and I would not pay $10! No response! Point is I would not stay here they are rude, unprofessional, family owned I guess and are charging people money that they pocket and I can't believe after seeing these other reviews how they can continue to get away with this...And that will be my last time EVER SAYING THERE!! Good luck if you stay, and don't let them take your money people they can't do anything...and not only that but be prepared to get phone calls and be harassed for not being out "BEFORE" check out! :) CastleMore</t>
   </si>
   <si>
+    <t>Deucedeuce2209</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r249124122-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -396,6 +429,9 @@
     <t>I'm staying here one night after the college football playoff national championship. So of course as showed up to check in very late (past midnight). We got to the front and had to ring a door bell to get assistance..waited a few minutes for I'm assuming the worker to wake up and realize he's at work and then come and help us. When we get in to the hotel room, only one light works, the picture on the wall is very lopsided, there is a piece of the door that isn't painted (wood still uncovered). There also isn't anything to block the view if you were to open the shades. So it's either a black room or 'hello and watch me get dressed'. I work at a marriott hotel and I guess I just have my standards set a little high. All the marriott hotels were booked, that's why we came here.  You get what you pay for. Worst hotel I've ever stayed at.More</t>
   </si>
   <si>
+    <t>mark c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r229484769-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -435,6 +471,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Nikol M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r186908094-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -456,6 +495,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Patricia M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r179344558-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -474,6 +516,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>KandJ2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r172298479-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -492,6 +537,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Texaspepper</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r155558441-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -513,6 +561,9 @@
     <t>I live about 6 miles from this motel.  I needed to spend the weekend and choose ABVI.  Found the staff helpful and the rate good.  A rate of $47 Senior Rate per night.  Room is clean, free WiFi in room, bed simi firm and comfortable.  The ABVI is about 4 years old and I would return.  No coffee in the morning UGH, but Starbucks is a few blocks away.  No micro wave, no frig but good eating places very close by.  Great AC/Heating unit in the wall.  Large flat screen TV on the wall. Queen bed and a nice couch to set and watch TV.  Basic amenities but come prepared to bring your own goodies.  Stayed in room 118 Smoking room with the door open often to get out smoke.More</t>
   </si>
   <si>
+    <t>kominekj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r142317321-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -531,6 +582,9 @@
     <t>We ran to Dallas for a quick visit. My wife booked a room that was close to where we were going and selected Americas best value for its price, location and reviews on another website. Upon our arrival we were checked in with no issues. The hotel is fairly new and appeared well kept. The room was decent size and clean. The bed was very comfortable and we had plenty of towels and hot water. The staff were very friendly and didn't hassle us when we slept late and didn't check out on time. If you're looking for a clean and reasonably priced hotel, this place is not too bad. More</t>
   </si>
   <si>
+    <t>Sam779</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r137571077-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -549,6 +603,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>Christina M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r131635932-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -562,6 +619,9 @@
   </si>
   <si>
     <t>The staff here is ridiculous. Very rude and the office reeks of curry. No breakfast, cheap, small towels, hard bed with itchy blanket. THERE IS NO HOT WATER, ONLY LUKE-WARM WATER. Shady people hanging about, dirty bath-tubs, no coffee, no pool, no breakfast, no ironing board, only three pillows. Management too lazy to bring new towels to room. So NOT worth the 37$. Stay somewhere else.</t>
+  </si>
+  <si>
+    <t>Kris C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r121104800-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
@@ -587,6 +647,9 @@
 The maid showed up at our door at 10:15, opening it without knocking... 45 min before check-out! My boyfriend happened to have stepped out of the shower to grab something when she did this, and when he shut the door as she was opening it, because he was wearing ONLY A TOWEL, she yelled at him that it was time to check out. He corrected her and finished showering. At 10:45 we got a phone call from the front desk. The woman insisted that check-out was in 3 minutes and asked if we would be staying. I told her that it was 15 minutes to 11 and she insisted that it was 3 minutes till! I corrected her and told her that I was looking...I am not too picky about cheap hotel rooms, as long as they're clean... but this place was horrible. I can live with the uncomfortable bed that left my 23-year-old body aching, the two thin pillows (along with a refusal to give us any more pillows because 'they were all being used'), the 4 cable channels in English that played only the news or sports, and even the fact that they made us go up to the front when we asked for more towels (which they expected to be exchanged for the ones already in the room!) and a blanket that wasn't already in the room... but the rest of our experience there was absurd. The maid showed up at our door at 10:15, opening it without knocking... 45 min before check-out! My boyfriend happened to have stepped out of the shower to grab something when she did this, and when he shut the door as she was opening it, because he was wearing ONLY A TOWEL, she yelled at him that it was time to check out. He corrected her and finished showering. At 10:45 we got a phone call from the front desk. The woman insisted that check-out was in 3 minutes and asked if we would be staying. I told her that it was 15 minutes to 11 and she insisted that it was 3 minutes till! I corrected her and told her that I was looking at 3 clocks, one of which was the hotel clock that I had not touched and she continued to insist that it was 3 minutes to 11 and asked if we would be staying. I told her I would most definitely not be staying and that I would be at the front in 15 minutes to check out. This is the most unprofessional experience I have ever had at any hotel.. it's just bad business practice. Beyond that, the HBO channel that they offer was difficult to get to. There were 3 or 4 steps you had to follow to turn it on, but there were no directions written in the room. I struggled for a while trying to figure out how to put it on, to no avail. I had to call the front and ask how to do it, and I was greeted with exasperation. If they don't want to tell the guest how to use the television, they should include the ridiculous directions in each room already, as any other hotel would do.The only reason I gave one star was because it was clean. I will NEVER stay here again.More</t>
   </si>
   <si>
+    <t>D0n1981</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r120252654-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -603,6 +666,9 @@
   </si>
   <si>
     <t>October 2011</t>
+  </si>
+  <si>
+    <t>kaykay0205</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r115028400-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
@@ -1134,43 +1200,47 @@
       <c r="A2" t="n">
         <v>58178</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>118104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1190,50 +1260,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>58178</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>118105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1247,50 +1321,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>58178</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>118106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1308,7 +1386,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -1321,37 +1399,37 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1365,7 +1443,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -1378,37 +1456,37 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1426,50 +1504,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>58178</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>118107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -1487,50 +1569,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>58178</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>4517</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1550,50 +1636,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>58178</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>118108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1613,50 +1703,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>58178</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>45026</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -1676,50 +1770,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>58178</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>118109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -1739,50 +1837,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>58178</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>118110</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1796,41 +1898,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>58178</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>118111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
@@ -1859,41 +1965,45 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>58178</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>118112</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
@@ -1922,50 +2032,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>58178</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>48456</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="J15" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -1985,7 +2099,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
@@ -1998,37 +2112,37 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="O16" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2042,50 +2156,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>58178</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>118113</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="J17" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="L17" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O17" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2099,50 +2217,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>58178</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>804</v>
+      </c>
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="J18" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K18" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2166,50 +2288,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>58178</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>118114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>166</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="J19" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="K19" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="L19" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -2233,50 +2359,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>58178</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>118115</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="K20" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="O20" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2300,41 +2430,45 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>58178</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>33147</v>
+      </c>
+      <c r="C21" t="s">
+        <v>181</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="J21" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="K21" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
@@ -2363,50 +2497,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>58178</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>118116</v>
+      </c>
+      <c r="C22" t="s">
+        <v>188</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="J22" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="K22" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="O22" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -2430,41 +2568,45 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>58178</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>16020</v>
+      </c>
+      <c r="C23" t="s">
+        <v>195</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="J23" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="K23" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="L23" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
@@ -2493,50 +2635,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>58178</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>42524</v>
+      </c>
+      <c r="C24" t="s">
+        <v>201</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="J24" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="K24" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="O24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -2560,50 +2706,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>58178</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>118117</v>
+      </c>
+      <c r="C25" t="s">
+        <v>209</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="J25" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="O25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -2627,50 +2777,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>58178</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>118118</v>
+      </c>
+      <c r="C26" t="s">
+        <v>216</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="J26" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="K26" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -2688,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="X26" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="Y26" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_9.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
   <si>
     <t>STR#</t>
   </si>
@@ -147,10 +147,7 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Kasey L</t>
-  </si>
-  <si>
-    <t>05/25/2018</t>
+    <t>08/16/2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r557188662-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
@@ -183,9 +180,6 @@
     <t>We stayed here two nights.  The first night it smelled okay.  We left the next morning and was gone all day.  We came back around 8:00 pm and opened the door and it smelled like a skunk had sprayed the room.  It was horrible!  We went to the front desk.  He smelled the room and said "It didn't smell to him".  The room next to us did not smell and we had two other guests smell the room.  We then got the manager who said it was "against policy to change rooms after staying one night".  He also told us "it might be your clothes or something you've done".  I was irate and insisted.  He refused and brought in a can of air freshener for us to spray in the room and gave us a bag of nasty chips "for our troubles"!  It was the worst experience.  This was terrible customer service and I will never stay at an America's Best Value Inn again!More</t>
   </si>
   <si>
-    <t>crabtreed1234</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r470147836-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -207,9 +201,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>shigh2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r468946376-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -264,9 +255,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>Ggayle</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r330515984-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -285,9 +273,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>Jamie S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r292986784-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -306,9 +291,6 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t>gu n</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r287565010-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -324,9 +306,6 @@
     <t>One of the best we've ever stayed at. The staff is always very helpful and the facilities are excellent. I would recommend this hotel with the highest rating. It is well located, I am glade to chose this property after viewing others review. leas expensive and nicer room</t>
   </si>
   <si>
-    <t>Pamela C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r274646713-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -345,9 +324,6 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>Chuck  G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r269770040-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -366,9 +342,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>wildcat817</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r266664179-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -387,9 +360,6 @@
     <t>I was staying at the hotel for 3 months at first i was saying nice place quiet like the place but the longer i stayed the worst they got the manager wife is the worst of all only give tissue every other day really....claim we stolen towels fron them so thry only gave one towel what a joke then talk bout it took a hour to clean the room then i realize they charge different prices 50 one day 60 the next charge 1 dollar for a can soda then a course the phone calls checkout at 11 why you calling at 9 to see if im leaving telling me to get my stuff out the room to clean and yesterday when i had my stuff outside and trying to check back in theu say soldout dont have any room left....whatever just didnt want my business anymore the problem is the wife she runs everything charge too much won't give me any receipt when i ask they cheap dont have trash bags hire some damn people to clean for you the guy is ok its the wife she is rude as hell dont know how to talk to people i wont go back there again rude shes rude not a place to be no pool no laundry room to wash clothes shes so damn room they get whats comingMore</t>
   </si>
   <si>
-    <t>Castle C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r254162112-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -408,9 +378,6 @@
     <t>These people bare unbelievable. Walked in about 8pm...NO one was there waiting (smelled horrible) and finally the managers (her husband) little puppet walked up to the front to assist me while getting food out of his teeth! (GROSS)! So I get my room that I booked on Expedia. The room was ok, everything looked ok but it smelled nasty! I literally went there to get some piece and quite and only used the bed to sleep in. I get a call from the front desk the next day BEFORE CHECK OUT! And it was the manager (the wife) asking me if I was staying another night, I said no! Then she tells me I need to leave now, I explained to her it was not even check out andoesn't I was getting ready she told me she didn't care she needed her room if I wasn't staying!  (REALLY) so then I was told I'd have to pay $10 if I need to stay later...LOL I DON'T THING SO! I hung up the phone and continued to get ready...literally 5 minutes later someone opens the door with a key OMG REALLY GUESS WHO!? (THE GRANDMA, THE MANAGERS MOTHER) I had the lock on do she didn't make it in....I told her if they didn't stop harassing me I would call the police and shut the door. So on my way out I get another phone call (manager) saying that I she...These people bare unbelievable. Walked in about 8pm...NO one was there waiting (smelled horrible) and finally the managers (her husband) little puppet walked up to the front to assist me while getting food out of his teeth! (GROSS)! So I get my room that I booked on Expedia. The room was ok, everything looked ok but it smelled nasty! I literally went there to get some piece and quite and only used the bed to sleep in. I get a call from the front desk the next day BEFORE CHECK OUT! And it was the manager (the wife) asking me if I was staying another night, I said no! Then she tells me I need to leave now, I explained to her it was not even check out andoesn't I was getting ready she told me she didn't care she needed her room if I wasn't staying!  (REALLY) so then I was told I'd have to pay $10 if I need to stay later...LOL I DON'T THING SO! I hung up the phone and continued to get ready...literally 5 minutes later someone opens the door with a key OMG REALLY GUESS WHO!? (THE GRANDMA, THE MANAGERS MOTHER) I had the lock on do she didn't make it in....I told her if they didn't stop harassing me I would call the police and shut the door. So on my way out I get another phone call (manager) saying that I she was going to co.e collect her $10 I told her I was on my way to check out and hung up. On my way down I pass her walking to my room I just left lol. I got down there to check out and made her husband give me a receipt showing I owed nothing, because I do not trust these people and then asked him if that was his wife that is demanding for $10 he said yes! So I told him on my way out I felt sorry for him, and that she is robbing people and I would not pay $10! No response! Point is I would not stay here they are rude, unprofessional, family owned I guess and are charging people money that they pocket and I can't believe after seeing these other reviews how they can continue to get away with this...And that will be my last time EVER SAYING THERE!! Good luck if you stay, and don't let them take your money people they can't do anything...and not only that but be prepared to get phone calls and be harassed for not being out "BEFORE" check out! :) CastleMore</t>
   </si>
   <si>
-    <t>Deucedeuce2209</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r249124122-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -429,9 +396,6 @@
     <t>I'm staying here one night after the college football playoff national championship. So of course as showed up to check in very late (past midnight). We got to the front and had to ring a door bell to get assistance..waited a few minutes for I'm assuming the worker to wake up and realize he's at work and then come and help us. When we get in to the hotel room, only one light works, the picture on the wall is very lopsided, there is a piece of the door that isn't painted (wood still uncovered). There also isn't anything to block the view if you were to open the shades. So it's either a black room or 'hello and watch me get dressed'. I work at a marriott hotel and I guess I just have my standards set a little high. All the marriott hotels were booked, that's why we came here.  You get what you pay for. Worst hotel I've ever stayed at.More</t>
   </si>
   <si>
-    <t>mark c</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r229484769-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -471,9 +435,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Nikol M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r186908094-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -495,9 +456,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Patricia M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r179344558-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -516,9 +474,6 @@
     <t>July 2013</t>
   </si>
   <si>
-    <t>KandJ2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r172298479-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -537,9 +492,6 @@
     <t>August 2013</t>
   </si>
   <si>
-    <t>Texaspepper</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r155558441-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -561,9 +513,6 @@
     <t>I live about 6 miles from this motel.  I needed to spend the weekend and choose ABVI.  Found the staff helpful and the rate good.  A rate of $47 Senior Rate per night.  Room is clean, free WiFi in room, bed simi firm and comfortable.  The ABVI is about 4 years old and I would return.  No coffee in the morning UGH, but Starbucks is a few blocks away.  No micro wave, no frig but good eating places very close by.  Great AC/Heating unit in the wall.  Large flat screen TV on the wall. Queen bed and a nice couch to set and watch TV.  Basic amenities but come prepared to bring your own goodies.  Stayed in room 118 Smoking room with the door open often to get out smoke.More</t>
   </si>
   <si>
-    <t>kominekj</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r142317321-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -582,9 +531,6 @@
     <t>We ran to Dallas for a quick visit. My wife booked a room that was close to where we were going and selected Americas best value for its price, location and reviews on another website. Upon our arrival we were checked in with no issues. The hotel is fairly new and appeared well kept. The room was decent size and clean. The bed was very comfortable and we had plenty of towels and hot water. The staff were very friendly and didn't hassle us when we slept late and didn't check out on time. If you're looking for a clean and reasonably priced hotel, this place is not too bad. More</t>
   </si>
   <si>
-    <t>Sam779</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r137571077-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -603,9 +549,6 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>Christina M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r131635932-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -619,9 +562,6 @@
   </si>
   <si>
     <t>The staff here is ridiculous. Very rude and the office reeks of curry. No breakfast, cheap, small towels, hard bed with itchy blanket. THERE IS NO HOT WATER, ONLY LUKE-WARM WATER. Shady people hanging about, dirty bath-tubs, no coffee, no pool, no breakfast, no ironing board, only three pillows. Management too lazy to bring new towels to room. So NOT worth the 37$. Stay somewhere else.</t>
-  </si>
-  <si>
-    <t>Kris C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r121104800-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
@@ -647,9 +587,6 @@
 The maid showed up at our door at 10:15, opening it without knocking... 45 min before check-out! My boyfriend happened to have stepped out of the shower to grab something when she did this, and when he shut the door as she was opening it, because he was wearing ONLY A TOWEL, she yelled at him that it was time to check out. He corrected her and finished showering. At 10:45 we got a phone call from the front desk. The woman insisted that check-out was in 3 minutes and asked if we would be staying. I told her that it was 15 minutes to 11 and she insisted that it was 3 minutes till! I corrected her and told her that I was looking...I am not too picky about cheap hotel rooms, as long as they're clean... but this place was horrible. I can live with the uncomfortable bed that left my 23-year-old body aching, the two thin pillows (along with a refusal to give us any more pillows because 'they were all being used'), the 4 cable channels in English that played only the news or sports, and even the fact that they made us go up to the front when we asked for more towels (which they expected to be exchanged for the ones already in the room!) and a blanket that wasn't already in the room... but the rest of our experience there was absurd. The maid showed up at our door at 10:15, opening it without knocking... 45 min before check-out! My boyfriend happened to have stepped out of the shower to grab something when she did this, and when he shut the door as she was opening it, because he was wearing ONLY A TOWEL, she yelled at him that it was time to check out. He corrected her and finished showering. At 10:45 we got a phone call from the front desk. The woman insisted that check-out was in 3 minutes and asked if we would be staying. I told her that it was 15 minutes to 11 and she insisted that it was 3 minutes till! I corrected her and told her that I was looking at 3 clocks, one of which was the hotel clock that I had not touched and she continued to insist that it was 3 minutes to 11 and asked if we would be staying. I told her I would most definitely not be staying and that I would be at the front in 15 minutes to check out. This is the most unprofessional experience I have ever had at any hotel.. it's just bad business practice. Beyond that, the HBO channel that they offer was difficult to get to. There were 3 or 4 steps you had to follow to turn it on, but there were no directions written in the room. I struggled for a while trying to figure out how to put it on, to no avail. I had to call the front and ask how to do it, and I was greeted with exasperation. If they don't want to tell the guest how to use the television, they should include the ridiculous directions in each room already, as any other hotel would do.The only reason I gave one star was because it was clean. I will NEVER stay here again.More</t>
   </si>
   <si>
-    <t>D0n1981</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r120252654-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
   </si>
   <si>
@@ -666,9 +603,6 @@
   </si>
   <si>
     <t>October 2011</t>
-  </si>
-  <si>
-    <t>kaykay0205</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d1478585-r115028400-Americas_Best_Value_Inn_Bedford_DFW_Airport-Bedford_Texas.html</t>
@@ -1200,47 +1134,43 @@
       <c r="A2" t="n">
         <v>58178</v>
       </c>
-      <c r="B2" t="n">
-        <v>118104</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1260,54 +1190,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>58178</v>
       </c>
-      <c r="B3" t="n">
-        <v>118105</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1321,54 +1247,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>58178</v>
       </c>
-      <c r="B4" t="n">
-        <v>118106</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
         <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" t="s">
-        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1386,7 +1308,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1399,37 +1321,37 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
-      </c>
-      <c r="J5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" t="s">
-        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1443,7 +1365,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1456,37 +1378,37 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
         <v>76</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>78</v>
       </c>
-      <c r="K6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>81</v>
-      </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1504,54 +1426,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>58178</v>
       </c>
-      <c r="B7" t="n">
-        <v>118107</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
         <v>83</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" t="s">
-        <v>87</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -1569,54 +1487,50 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>58178</v>
       </c>
-      <c r="B8" t="n">
-        <v>4517</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1636,54 +1550,50 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>58178</v>
       </c>
-      <c r="B9" t="n">
-        <v>118108</v>
-      </c>
-      <c r="C9" t="s">
-        <v>96</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1703,54 +1613,50 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>58178</v>
       </c>
-      <c r="B10" t="n">
-        <v>45026</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -1770,54 +1676,50 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>58178</v>
       </c>
-      <c r="B11" t="n">
-        <v>118109</v>
-      </c>
-      <c r="C11" t="s">
-        <v>109</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -1837,54 +1739,50 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>58178</v>
       </c>
-      <c r="B12" t="n">
-        <v>118110</v>
-      </c>
-      <c r="C12" t="s">
-        <v>116</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1898,45 +1796,41 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>58178</v>
       </c>
-      <c r="B13" t="n">
-        <v>118111</v>
-      </c>
-      <c r="C13" t="s">
-        <v>123</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
@@ -1965,45 +1859,41 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>58178</v>
       </c>
-      <c r="B14" t="n">
-        <v>118112</v>
-      </c>
-      <c r="C14" t="s">
-        <v>130</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
@@ -2032,54 +1922,50 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>58178</v>
       </c>
-      <c r="B15" t="n">
-        <v>48456</v>
-      </c>
-      <c r="C15" t="s">
-        <v>137</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="K15" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -2099,7 +1985,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
@@ -2112,37 +1998,37 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K16" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="O16" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2156,54 +2042,50 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>58178</v>
       </c>
-      <c r="B17" t="n">
-        <v>118113</v>
-      </c>
-      <c r="C17" t="s">
-        <v>151</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="J17" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="O17" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2217,54 +2099,50 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>58178</v>
       </c>
-      <c r="B18" t="n">
-        <v>804</v>
-      </c>
-      <c r="C18" t="s">
-        <v>159</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="J18" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="K18" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2288,54 +2166,50 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>58178</v>
       </c>
-      <c r="B19" t="n">
-        <v>118114</v>
-      </c>
-      <c r="C19" t="s">
-        <v>166</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="J19" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -2359,54 +2233,50 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>58178</v>
       </c>
-      <c r="B20" t="n">
-        <v>118115</v>
-      </c>
-      <c r="C20" t="s">
-        <v>173</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="J20" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="L20" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="O20" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2430,45 +2300,41 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>58178</v>
       </c>
-      <c r="B21" t="n">
-        <v>33147</v>
-      </c>
-      <c r="C21" t="s">
-        <v>181</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="J21" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="K21" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="L21" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
@@ -2497,54 +2363,50 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>58178</v>
       </c>
-      <c r="B22" t="n">
-        <v>118116</v>
-      </c>
-      <c r="C22" t="s">
-        <v>188</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="J22" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="K22" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="L22" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="O22" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -2568,45 +2430,41 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>58178</v>
       </c>
-      <c r="B23" t="n">
-        <v>16020</v>
-      </c>
-      <c r="C23" t="s">
-        <v>195</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="J23" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="K23" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="L23" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
@@ -2635,54 +2493,50 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>58178</v>
       </c>
-      <c r="B24" t="n">
-        <v>42524</v>
-      </c>
-      <c r="C24" t="s">
-        <v>201</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="J24" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="K24" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="L24" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="O24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -2706,54 +2560,50 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>58178</v>
       </c>
-      <c r="B25" t="n">
-        <v>118117</v>
-      </c>
-      <c r="C25" t="s">
-        <v>209</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
       <c r="I25" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="J25" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="K25" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="L25" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="O25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -2777,54 +2627,50 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>58178</v>
       </c>
-      <c r="B26" t="n">
-        <v>118118</v>
-      </c>
-      <c r="C26" t="s">
-        <v>216</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
         <v>46</v>
       </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
       <c r="I26" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="J26" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="K26" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="L26" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -2842,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="X26" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="Y26" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
